--- a/new original/_Lang_Chinese/Lang/CN/Game/ZoneAffix.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/ZoneAffix.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="173">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">boring</t>
@@ -254,10 +254,10 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">unchanging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">うつろわざる</t>
+    <t xml:space="preserve">warped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">歪んだ</t>
   </si>
   <si>
     <t xml:space="preserve">25</t>
@@ -314,12 +314,105 @@
     <t xml:space="preserve">神秘的な</t>
   </si>
   <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blasphemous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冒涜的な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ruined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荒廃した</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crumbling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崩れかけた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isolated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">隔絶された</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arcane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魔力に満ちた</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lively</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生き生きとした</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rustic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">素朴な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">導きの</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">土の香る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">護られた</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 15.1</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.253</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.27</t>
   </si>
   <si>
@@ -392,7 +485,7 @@
     <t xml:space="preserve">无名的</t>
   </si>
   <si>
-    <t xml:space="preserve">永恒不变的</t>
+    <t xml:space="preserve">扭曲的</t>
   </si>
   <si>
     <t xml:space="preserve">禁忌的</t>
@@ -411,6 +504,36 @@
   </si>
   <si>
     <t xml:space="preserve">神秘的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亵渎的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荒废的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崩塌的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">与世隔绝的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">充满魔力的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生机勃勃的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">朴素的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">引导的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">泥土芬芳的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受到庇护的</t>
   </si>
 </sst>
 </file>
@@ -522,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -541,10 +664,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -560,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -579,10 +702,10 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -598,10 +721,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -617,10 +740,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -636,10 +759,10 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
@@ -655,10 +778,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
@@ -674,10 +797,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -693,10 +816,10 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -712,10 +835,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
@@ -731,10 +854,10 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -750,10 +873,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -769,10 +892,10 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
         <v>49</v>
@@ -788,10 +911,10 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
         <v>52</v>
@@ -807,10 +930,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
@@ -826,10 +949,10 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -845,10 +968,10 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
         <v>61</v>
@@ -864,10 +987,10 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
@@ -883,10 +1006,10 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -902,10 +1025,10 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>
@@ -921,10 +1044,10 @@
         <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
         <v>73</v>
@@ -940,10 +1063,10 @@
         <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
@@ -959,10 +1082,10 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
         <v>79</v>
@@ -978,10 +1101,10 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -997,10 +1120,10 @@
         <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
         <v>85</v>
@@ -1016,10 +1139,10 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
@@ -1035,10 +1158,10 @@
         <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
@@ -1054,10 +1177,10 @@
         <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
         <v>94</v>
@@ -1073,10 +1196,10 @@
         <v>96</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
         <v>97</v>
@@ -1086,6 +1209,196 @@
       </c>
       <c r="G32"/>
       <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42"/>
+      <c r="H42"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/new original/_Lang_Chinese/Lang/CN/Game/ZoneAffix.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/ZoneAffix.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">boring</t>
